--- a/medicine/Enfance/Helen_Dunmore/Helen_Dunmore.xlsx
+++ b/medicine/Enfance/Helen_Dunmore/Helen_Dunmore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helen Dunmore, née le 12 décembre 1952 à Beverley (Royaume-Uni) et morte le 5 juin 2017 à Bristol (Royaume-Uni), est une écrivaine britannique.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dunmore est née à Beverley, dans le Yorkshire, en 1952[1]. Elle est la deuxième des quatre enfants de Betty (née Smith) et Maurice Dunmore. Elle étudie à l'université d'York[1].
-Puis elle vit deux ans en Finlande (1973-75) où elle travaille comme enseignante[1]. Elle revient ensuite en Grande-Bretagne où elle est lectrice dans une maison d’édition[1], critique dans plusieurs journaux ou revues[1], et enseignante à Glamorgan puis Bristol. Elle se consacre aussi à l’écriture et est l’auteure d’une  cinquantaine de livres, romans, nouvelles, poèmes et livres pour enfants[1]. Elle devient membre de la Royal Society of Literature (FRSL) et reçoit plusieurs prix dans les années 1990. Certains de ses livres pour enfants sont inclus dans des programmes de lecture utilisés dans les écoles.
-En mars 2017, elle publie son dernier roman, Birdcage Walk, ainsi qu'un article sur la mortalité pour The Guardian, écrit après qu'on lui a diagnostiqué un cancer en phase terminale. Elle meurt le 5 juin 2017[2],[3],[4]. Quelques mois après son décès, son recueil de poésies Inside the Wave publié en avril 2017, peu avant sa mort, est le « Livre de l'année 2017 » du Prix Costa[5], remportant à titre posthume les prix de la poésie et du livre global de l'année lors des Costa Book Awards 2017[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dunmore est née à Beverley, dans le Yorkshire, en 1952. Elle est la deuxième des quatre enfants de Betty (née Smith) et Maurice Dunmore. Elle étudie à l'université d'York.
+Puis elle vit deux ans en Finlande (1973-75) où elle travaille comme enseignante. Elle revient ensuite en Grande-Bretagne où elle est lectrice dans une maison d’édition, critique dans plusieurs journaux ou revues, et enseignante à Glamorgan puis Bristol. Elle se consacre aussi à l’écriture et est l’auteure d’une  cinquantaine de livres, romans, nouvelles, poèmes et livres pour enfants. Elle devient membre de la Royal Society of Literature (FRSL) et reçoit plusieurs prix dans les années 1990. Certains de ses livres pour enfants sont inclus dans des programmes de lecture utilisés dans les écoles.
+En mars 2017, elle publie son dernier roman, Birdcage Walk, ainsi qu'un article sur la mortalité pour The Guardian, écrit après qu'on lui a diagnostiqué un cancer en phase terminale. Elle meurt le 5 juin 2017. Quelques mois après son décès, son recueil de poésies Inside the Wave publié en avril 2017, peu avant sa mort, est le « Livre de l'année 2017 » du Prix Costa, remportant à titre posthume les prix de la poésie et du livre global de l'année lors des Costa Book Awards 2017.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>McKitterick Prize (en) 1994 pour Zennor in Darkness (en)
 Orange Prize for Fiction 1996 pour A Spell of Winter
 Prix T.S. Eliot 1997 pour Bestiary
-« Livre de l'année », Prix Costa 2017[5] pour Inside the Wave (à titre posthume)</t>
+« Livre de l'année », Prix Costa 2017 pour Inside the Wave (à titre posthume)</t>
         </is>
       </c>
     </row>
@@ -577,11 +593,47 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Liste non exhaustive
-Romans
-Zennor in Darkness (1993)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste non exhaustive</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Helen_Dunmore</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helen_Dunmore</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Zennor in Darkness (1993)
 Dans l'ombre de Zennor, Autrement, 1995
 Burning Bright (1994)
 A Spell of Winter (1996)
@@ -605,10 +657,43 @@
 The Lie (2014)
 Le Mensonge de Daniel Branwell, Mercure de France, 2015
 Exposure (2016)
-Birdcage Walk (2017)
-Poésie
-Inside the Wave (2017)
-Littérature jeunesse</t>
+Birdcage Walk (2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Helen_Dunmore</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helen_Dunmore</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Inside the Wave (2017)</t>
         </is>
       </c>
     </row>
